--- a/DFT Calculations/gp_start_folder_empty/pyrdz_extracted_properties.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrdz_extracted_properties.xlsx
@@ -1094,7 +1094,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="AD3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="AE3">
         <v>-0.63618</v>
@@ -1285,7 +1285,7 @@
         <v>387.6564013980003</v>
       </c>
       <c r="AD4">
-        <v>0.9176496491151052</v>
+        <v>0.9176496491151053</v>
       </c>
       <c r="AE4">
         <v>-0.42954</v>
@@ -1363,7 +1363,7 @@
         <v>3.271551422186657</v>
       </c>
       <c r="BD4">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="BE4">
         <v>0.7942129207217251</v>
@@ -1667,7 +1667,7 @@
         <v>384.397518061005</v>
       </c>
       <c r="AD6">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="AE6">
         <v>-0.43427</v>
@@ -1749,9 +1749,6 @@
       </c>
       <c r="BE6">
         <v>0.8391109953942257</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
       </c>
       <c r="BG6">
         <v>6.290374186580857E-11</v>
